--- a/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL MIS.xlsx
+++ b/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL MIS.xlsx
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>10651694.88</v>
+        <v>18749565.12</v>
       </c>
       <c r="C2" t="n">
-        <v>838869</v>
+        <v>493242</v>
       </c>
       <c r="D2" t="n">
-        <v>7.88</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>17487684.12</v>
+        <v>15513891.85</v>
       </c>
       <c r="C3" t="n">
-        <v>293818</v>
+        <v>171573</v>
       </c>
       <c r="D3" t="n">
-        <v>1.68</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>10580579</v>
+        <v>9530315.050000001</v>
       </c>
       <c r="C4" t="n">
-        <v>228878</v>
+        <v>32272</v>
       </c>
       <c r="D4" t="n">
-        <v>2.16</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
